--- a/data/trans_camb/P59A-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P59A-Estudios-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>1.305668403703353</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.9742183418598991</v>
+        <v>0.9742183418598962</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.497468626086075</v>
+        <v>-1.348554605781956</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.052029003770397</v>
+        <v>-3.297807404142018</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.536597573570206</v>
+        <v>-2.853614806665624</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.6676683663358809</v>
+        <v>-0.8325824697176336</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.8905963215765</v>
+        <v>-1.698933118552743</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-2.47185054540414</v>
+        <v>-2.253351607592438</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1708545802388138</v>
+        <v>0.134102621899143</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.449002892325431</v>
+        <v>-1.038770924025378</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-1.367340765234724</v>
+        <v>-1.388976980497166</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.164670836237123</v>
+        <v>8.7896277036409</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.532914315422624</v>
+        <v>6.292400856202756</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.898584834105637</v>
+        <v>7.756888356604582</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.497364032561328</v>
+        <v>5.227371588046182</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.358705960387513</v>
+        <v>4.398201376119069</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.218695169979997</v>
+        <v>3.294058563369688</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>5.560289050608793</v>
+        <v>5.490561282552946</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.902742998891322</v>
+        <v>4.104528009711431</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>3.626473927180359</v>
+        <v>3.779261725135076</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>0.2223478834182671</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.1659038280205004</v>
+        <v>0.1659038280204999</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1722906966611299</v>
+        <v>-0.1150964178077333</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3108667115658755</v>
+        <v>-0.3379886858700359</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3860701388167905</v>
+        <v>-0.3171165964514487</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1599326203868378</v>
+        <v>-0.1641563064364946</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.315846963634749</v>
+        <v>-0.3080981127312634</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4082409545734232</v>
+        <v>-0.3811128132751203</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.007462662621657217</v>
+        <v>0.008910030229212024</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2110511709843444</v>
+        <v>-0.1498084705794294</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.2148529152883158</v>
+        <v>-0.2096784498442351</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.4291472219259</v>
+        <v>1.638052451274038</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.214845149034984</v>
+        <v>1.082719681448844</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.250431847490262</v>
+        <v>1.264563685123062</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.596875489475703</v>
+        <v>1.565185315698346</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.295769737718871</v>
+        <v>1.279635048211666</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.914315644960018</v>
+        <v>0.9948077955926299</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.182334574677838</v>
+        <v>1.121311511183105</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.8066563558018156</v>
+        <v>0.8565665933681605</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.7166442694450764</v>
+        <v>0.8189958578585034</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>4.270799681586521</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2.577848255375817</v>
+        <v>2.57784825537582</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>5.177868813440971</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.72821489190239</v>
+        <v>-2.499173206651079</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7343477443649954</v>
+        <v>0.3288077721313571</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.431176995278337</v>
+        <v>-1.582939317840286</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.56153430653991</v>
+        <v>1.211074735426757</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1.317411174268856</v>
+        <v>1.034851925659177</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.4708184061819778</v>
+        <v>-0.3130688931484399</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.6349974756253584</v>
+        <v>0.1715954270013935</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>1.707942316672877</v>
+        <v>1.774107493401848</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.112104834426096</v>
+        <v>0.1865070028077983</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.552518038897446</v>
+        <v>4.596202111946639</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.027320720696681</v>
+        <v>7.823884889949712</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.471653010632078</v>
+        <v>6.301401313809768</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.085705537484156</v>
+        <v>9.558464294517945</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>8.261879340566585</v>
+        <v>8.212531609084881</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>6.461093328215517</v>
+        <v>6.315794737799966</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>5.705612500793773</v>
+        <v>5.815159508593363</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>6.946859638781756</v>
+        <v>7.045391335765842</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>5.368037505232935</v>
+        <v>5.409401694453505</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.2946672648437319</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.1778607172489997</v>
+        <v>0.1778607172489999</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.4287223773556717</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1641723551260823</v>
+        <v>-0.1531613102112361</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.04530559330000243</v>
+        <v>0.01454201480832716</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.08834973629154264</v>
+        <v>-0.09635803127684732</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.1111931644371463</v>
+        <v>0.08537411814445182</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.08445560351262039</v>
+        <v>0.06909151231952082</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.04456990491067962</v>
+        <v>-0.02444935068970255</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04387695952661897</v>
+        <v>0.01275777073082873</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1206927454730445</v>
+        <v>0.1176511229958472</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.003798294213980126</v>
+        <v>0.01236928252598786</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.3605667488178858</v>
+        <v>0.3592074575785124</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.640778785459412</v>
+        <v>0.620201076720543</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.514271294353057</v>
+        <v>0.4946723294273377</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.8775391395652272</v>
+        <v>0.9386524316700667</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.7758382277790523</v>
+        <v>0.8109529623087862</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6284700827246426</v>
+        <v>0.6248575227970037</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.490795051967048</v>
+        <v>0.4956240358690177</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.6008763756438746</v>
+        <v>0.5943944250713782</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.4486953514172372</v>
+        <v>0.4556927698187123</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>0.3698789703898475</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>2.915640197492269</v>
+        <v>2.915640197492264</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>2.327825512256945</v>
@@ -1092,7 +1092,7 @@
         <v>1.508880275243282</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>1.665336254668323</v>
+        <v>1.66533625466832</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-6.858934434650194</v>
+        <v>-6.743468610558404</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.616492248535553</v>
+        <v>-5.095943397935218</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-7.357634598598802</v>
+        <v>-7.06826662493763</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.558200816371817</v>
+        <v>-3.96873736748315</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-6.856164276760154</v>
+        <v>-6.600121868168062</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-4.02260149482899</v>
+        <v>-3.775527274701032</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-3.120448053966716</v>
+        <v>-3.491352537842046</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-3.672299725360315</v>
+        <v>-3.543138555469678</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-2.910815757095061</v>
+        <v>-3.31278874219736</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.900011185276686</v>
+        <v>9.052414020128472</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>10.50457315401311</v>
+        <v>10.49520493908277</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.327826145699932</v>
+        <v>7.015358860933388</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>12.66221428766725</v>
+        <v>12.91149933601284</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>7.546675787972043</v>
+        <v>7.401338115963931</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>9.227774471227024</v>
+        <v>9.122316404172373</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>8.075841361581993</v>
+        <v>8.224014118497148</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>7.138966801828903</v>
+        <v>7.28672207355462</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>6.520259238948324</v>
+        <v>6.41889886801165</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.02128594119975155</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1677904146268164</v>
+        <v>0.167790414626816</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.1283378972536154</v>
@@ -1197,7 +1197,7 @@
         <v>0.08318773065788303</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.09181347657674137</v>
+        <v>0.09181347657674122</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.3325684755594447</v>
+        <v>-0.3156880325254453</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2134021095044198</v>
+        <v>-0.2292199059189744</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.3357763527419944</v>
+        <v>-0.3049025350692989</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1778498844993103</v>
+        <v>-0.1933071177101061</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3354493900716732</v>
+        <v>-0.317651889604888</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1926877805612401</v>
+        <v>-0.172333817802212</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1487807801534224</v>
+        <v>-0.1740517459503324</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1858885312251353</v>
+        <v>-0.1681994725925513</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.1427919846485187</v>
+        <v>-0.1545635522325818</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.5402983042380244</v>
+        <v>0.6069257856102992</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.6662628613324783</v>
+        <v>0.7046466814421721</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.475256773870404</v>
+        <v>0.4845117479400484</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.9426179992803217</v>
+        <v>0.9676788425574989</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.564673215600513</v>
+        <v>0.5608414797070904</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6951431776119823</v>
+        <v>0.7151465135832945</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5003956872553147</v>
+        <v>0.5128887554559443</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.4710298564841312</v>
+        <v>0.4905427271576187</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.4497930876327924</v>
+        <v>0.420238751235377</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>3.919827418314424</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>3.573613472251948</v>
+        <v>3.573613472251945</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>2.90555131726855</v>
@@ -1306,7 +1306,7 @@
         <v>3.860182699571803</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>3.141752904654142</v>
+        <v>3.141752904654139</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.287211113409025</v>
+        <v>-1.255788292323765</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.188121754090102</v>
+        <v>0.7760798867063083</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.3342401460458194</v>
+        <v>-0.2614902722705465</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.497406105185762</v>
+        <v>1.521629595421158</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>1.449387286978085</v>
+        <v>1.615821510699324</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>1.123294412319396</v>
+        <v>1.204134940761656</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.9761330750126855</v>
+        <v>1.019236431009214</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>2.217608587967477</v>
+        <v>1.893111838092757</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.414709938847363</v>
+        <v>1.201504820425292</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.311877150501441</v>
+        <v>4.221611032030132</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.690950469272414</v>
+        <v>6.521938421646873</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.701098154717821</v>
+        <v>5.592189627539103</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.433526890613191</v>
+        <v>6.487187887549868</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>6.337260495925938</v>
+        <v>6.479630684777436</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>5.71365642696286</v>
+        <v>5.86670847938645</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>4.862862412259558</v>
+        <v>4.901573631286823</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>5.817947253551024</v>
+        <v>5.594469887475746</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>5.086305062722615</v>
+        <v>4.754864371832989</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.3832456905266394</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3493959852542264</v>
+        <v>0.3493959852542262</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.2442672672607684</v>
@@ -1411,7 +1411,7 @@
         <v>0.3245223285328571</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.2641245370086568</v>
+        <v>0.2641245370086566</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.08862529953262741</v>
+        <v>-0.08234877657313769</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.07731543329376592</v>
+        <v>0.04788139322223347</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.02575987659420769</v>
+        <v>-0.02331066957661198</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.1233802949637426</v>
+        <v>0.1360288365535448</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1314980298188768</v>
+        <v>0.1348094361964972</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1056314789402864</v>
+        <v>0.1073506120991977</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.08131509785174817</v>
+        <v>0.08002360841139131</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1718302832156232</v>
+        <v>0.1418981745414309</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.1145791014929192</v>
+        <v>0.09485372871112446</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.3479922036821043</v>
+        <v>0.3442313599424467</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.5446300131152619</v>
+        <v>0.5345025466641662</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.4562770330821418</v>
+        <v>0.4418631189280172</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.6938991598445375</v>
+        <v>0.7114351572442579</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.7167050961561544</v>
+        <v>0.6967619384401453</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6504960610165356</v>
+        <v>0.666542517405796</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4450650452162355</v>
+        <v>0.4507769508456456</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.5293640514357082</v>
+        <v>0.5101893196996954</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.4633404768392021</v>
+        <v>0.4334666205880853</v>
       </c>
     </row>
     <row r="28">
